--- a/inst/extdata/EntityRelationDefinition.xlsx
+++ b/inst/extdata/EntityRelationDefinition.xlsx
@@ -21,29 +21,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve">TableName </t>
   </si>
   <si>
+    <t xml:space="preserve">RowFilter</t>
+  </si>
+  <si>
     <t xml:space="preserve">EntityType</t>
   </si>
   <si>
-    <t xml:space="preserve">EntityID </t>
+    <t xml:space="preserve">FromEntityID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ToEntityID</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">ValueExpression</t>
   </si>
   <si>
-    <t xml:space="preserve">RowFilter</t>
-  </si>
-  <si>
     <t xml:space="preserve">DateExpression</t>
   </si>
   <si>
@@ -53,19 +53,10 @@
     <t xml:space="preserve">DateEstimationType</t>
   </si>
   <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
     <t xml:space="preserve">DateMissingType </t>
   </si>
   <si>
     <t xml:space="preserve">RelationshipType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FromEntityID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ToEntityID</t>
   </si>
   <si>
     <t xml:space="preserve">VariableName</t>
@@ -93,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,6 +116,13 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -190,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,7 +209,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,28 +294,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="13" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="12" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,10 +326,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -349,9 +349,6 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -396,50 +393,50 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/inst/extdata/EntityRelationDefinition.xlsx
+++ b/inst/extdata/EntityRelationDefinition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">TableName </t>
   </si>
@@ -59,22 +59,7 @@
     <t xml:space="preserve">RelationshipType</t>
   </si>
   <si>
-    <t xml:space="preserve">VariableName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
     <t xml:space="preserve">DataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateEstimationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateMissingType </t>
   </si>
 </sst>
 </file>
@@ -84,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -121,12 +106,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -188,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,11 +188,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -296,24 +271,25 @@
   </sheetPr>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="12" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,13 +343,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.46"/>
@@ -386,74 +362,51 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="13" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
